--- a/Analytics/F1/CrossBookings_f1.xlsx
+++ b/Analytics/F1/CrossBookings_f1.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Advancedmetrics\Analytics\F1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0D1435-2141-413C-A3A8-5876327EB429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HomeCrossBookings" r:id="rId3" sheetId="1"/>
-    <sheet name="AwayCrossBookings" r:id="rId4" sheetId="2"/>
-    <sheet name="TotalCrossBookings" r:id="rId5" sheetId="3"/>
+    <sheet name="HomeCrossBookings" sheetId="1" r:id="rId1"/>
+    <sheet name="AwayCrossBookings" sheetId="2" r:id="rId2"/>
+    <sheet name="TotalCrossBookings" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -142,11 +150,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -158,7 +165,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -176,19 +183,328 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -196,219 +512,218 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="n">
-        <v>13475.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2">
+        <v>13475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="n">
-        <v>13475.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3">
+        <v>13475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="n">
-        <v>11650.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4">
+        <v>11650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="n">
-        <v>11375.0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5">
+        <v>11375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="n">
-        <v>9850.0</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C6">
+        <v>9850</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="n">
-        <v>9775.0</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="C7">
+        <v>9775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="n">
-        <v>9700.0</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="C8">
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="n">
-        <v>9075.0</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="C9">
+        <v>9075</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="n">
-        <v>9050.0</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="C10">
+        <v>9050</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="n">
-        <v>8600.0</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="C11">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="n">
-        <v>7500.0</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="C12">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="n">
-        <v>7475.0</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="C13">
+        <v>7475</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="n">
-        <v>7250.0</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="C14">
+        <v>7250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="n">
-        <v>7250.0</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="C15">
+        <v>7250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="n">
-        <v>7150.0</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="C16">
+        <v>7150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="C17" t="n">
-        <v>6350.0</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="C17">
+        <v>6350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" t="n">
-        <v>6300.0</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="C18">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="n">
-        <v>6250.0</v>
+      <c r="C19">
+        <v>6250</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>38</v>
       </c>
@@ -416,219 +731,220 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="n">
-        <v>16450.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2">
+        <v>16450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="n">
-        <v>12775.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3">
+        <v>12775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="n">
-        <v>12525.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4">
+        <v>12525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="n">
-        <v>12175.0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5">
+        <v>12175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="n">
-        <v>12100.0</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C6">
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="n">
-        <v>11675.0</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="C7">
+        <v>11675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="n">
-        <v>9150.0</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="C8">
+        <v>9150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="n">
-        <v>8800.0</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="C9">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="n">
-        <v>8775.0</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="C10">
+        <v>8775</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="n">
-        <v>8550.0</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="C11">
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="n">
-        <v>8300.0</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="C12">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="n">
-        <v>7525.0</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="C13">
+        <v>7525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" t="n">
-        <v>7400.0</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="C14">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="n">
-        <v>6300.0</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="C15">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="n">
-        <v>5100.0</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="C16">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="C17" t="n">
-        <v>4900.0</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="C17">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="n">
-        <v>4650.0</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="C18">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="C19" t="n">
-        <v>4400.0</v>
+      <c r="C19">
+        <v>4400</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -639,259 +955,259 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="n">
-        <v>26300.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>773.5294117647059</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2">
+        <v>26300</v>
+      </c>
+      <c r="D2">
+        <v>773.52941176470586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="n">
-        <v>23750.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>698.5294117647059</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3">
+        <v>23750</v>
+      </c>
+      <c r="D3">
+        <v>698.52941176470586</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="n">
-        <v>22225.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>653.6764705882352</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4">
+        <v>22225</v>
+      </c>
+      <c r="D4">
+        <v>653.67647058823525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="n">
-        <v>20875.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>613.9705882352941</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5">
+        <v>20875</v>
+      </c>
+      <c r="D5">
+        <v>613.97058823529414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="n">
-        <v>20775.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>611.0294117647059</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C6">
+        <v>20775</v>
+      </c>
+      <c r="D6">
+        <v>611.02941176470586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="n">
-        <v>20025.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>588.9705882352941</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="C7">
+        <v>20025</v>
+      </c>
+      <c r="D7">
+        <v>588.97058823529414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="n">
-        <v>19150.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>563.2352941176471</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="C8">
+        <v>19150</v>
+      </c>
+      <c r="D8">
+        <v>563.23529411764707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="n">
-        <v>18900.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>555.8823529411765</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="C9">
+        <v>18900</v>
+      </c>
+      <c r="D9">
+        <v>555.88235294117646</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="n">
-        <v>18325.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>538.9705882352941</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="C10">
+        <v>18325</v>
+      </c>
+      <c r="D10">
+        <v>538.97058823529414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="n">
-        <v>18125.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>533.0882352941177</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="C11">
+        <v>18125</v>
+      </c>
+      <c r="D11">
+        <v>533.08823529411768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="n">
-        <v>17850.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>525.0</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="C12">
+        <v>17850</v>
+      </c>
+      <c r="D12">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="n">
-        <v>17375.0</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13">
+        <v>17375</v>
+      </c>
+      <c r="D13">
         <v>511.02941176470586</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="n">
-        <v>15450.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>454.4117647058824</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="C14">
+        <v>15450</v>
+      </c>
+      <c r="D14">
+        <v>454.41176470588238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="C15" t="n">
-        <v>15125.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>444.8529411764706</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="C15">
+        <v>15125</v>
+      </c>
+      <c r="D15">
+        <v>444.85294117647061</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="n">
-        <v>13550.0</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16">
+        <v>13550</v>
+      </c>
+      <c r="D16">
         <v>398.52941176470586</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" t="n">
-        <v>12250.0</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17">
+        <v>12250</v>
+      </c>
+      <c r="D17">
         <v>360.29411764705884</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="n">
-        <v>11900.0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>350.0</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="C18">
+        <v>11900</v>
+      </c>
+      <c r="D18">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="n">
-        <v>11150.0</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19">
+        <v>11150</v>
+      </c>
+      <c r="D19">
         <v>327.94117647058823</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Analytics/F1/CrossBookings_f1.xlsx
+++ b/Analytics/F1/CrossBookings_f1.xlsx
@@ -76,52 +76,52 @@
     <t>18</t>
   </si>
   <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
     <t>Monaco</t>
   </si>
   <si>
+    <t>Marseille</t>
+  </si>
+  <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>Montpellier</t>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Brest</t>
   </si>
   <si>
     <t>Rennes</t>
   </si>
   <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
     <t>Reims</t>
   </si>
   <si>
-    <t>Marseille</t>
-  </si>
-  <si>
     <t>Lyon</t>
   </si>
   <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Brest</t>
+    <t>St Etienne</t>
   </si>
   <si>
     <t>Paris SG</t>
   </si>
   <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
     <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>St Etienne</t>
   </si>
   <si>
     <t>Nantes</t>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>4850.0</v>
+        <v>10125.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>4600.0</v>
+        <v>5650.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +226,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>4550.0</v>
+        <v>4875.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>3400.0</v>
+        <v>4600.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>3400.0</v>
+        <v>4400.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>3225.0</v>
+        <v>4100.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>3000.0</v>
+        <v>4025.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>2900.0</v>
+        <v>4000.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>2900.0</v>
+        <v>4000.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>2800.0</v>
+        <v>3900.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>2525.0</v>
+        <v>3800.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>2450.0</v>
+        <v>3300.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>2350.0</v>
+        <v>3250.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>2100.0</v>
+        <v>3100.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>2100.0</v>
+        <v>2800.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>1700.0</v>
+        <v>2750.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>1500.0</v>
+        <v>2050.0</v>
       </c>
     </row>
     <row r="19">
@@ -391,7 +391,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>600.0</v>
+        <v>1500.0</v>
       </c>
     </row>
   </sheetData>
@@ -424,7 +424,7 @@
         <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>6900.0</v>
+        <v>10875.0</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
-        <v>5250.0</v>
+        <v>7300.0</v>
       </c>
     </row>
     <row r="4">
@@ -443,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>4600.0</v>
+        <v>6700.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>4550.0</v>
+        <v>6250.0</v>
       </c>
     </row>
     <row r="6">
@@ -465,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
-        <v>4225.0</v>
+        <v>5025.0</v>
       </c>
     </row>
     <row r="7">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>3125.0</v>
+        <v>3825.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>2950.0</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>2800.0</v>
+        <v>3450.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>2300.0</v>
+        <v>3400.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>2250.0</v>
+        <v>3100.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C12" t="n">
-        <v>2100.0</v>
+        <v>2850.0</v>
       </c>
     </row>
     <row r="13">
@@ -545,7 +545,7 @@
         <v>36</v>
       </c>
       <c r="C13" t="n">
-        <v>1900.0</v>
+        <v>2800.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="n">
-        <v>1800.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>1700.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="16">
@@ -575,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C16" t="n">
-        <v>1300.0</v>
+        <v>2650.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C17" t="n">
-        <v>1200.0</v>
+        <v>2200.0</v>
       </c>
     </row>
     <row r="18">
@@ -597,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" t="n">
-        <v>1000.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="19">
@@ -608,10 +608,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C19" t="n">
-        <v>1000.0</v>
+        <v>1200.0</v>
       </c>
     </row>
   </sheetData>
@@ -644,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>9150.0</v>
+        <v>16825.0</v>
       </c>
       <c r="D2" t="n">
-        <v>915.0</v>
+        <v>1682.5</v>
       </c>
     </row>
     <row r="3">
@@ -661,10 +661,10 @@
         <v>34</v>
       </c>
       <c r="C3" t="n">
-        <v>9000.0</v>
+        <v>13675.0</v>
       </c>
       <c r="D3" t="n">
-        <v>900.0</v>
+        <v>1367.5</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>8475.0</v>
+        <v>11125.0</v>
       </c>
       <c r="D4" t="n">
-        <v>847.5</v>
+        <v>1112.5</v>
       </c>
     </row>
     <row r="5">
@@ -686,13 +686,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>7725.0</v>
+        <v>10400.0</v>
       </c>
       <c r="D5" t="n">
-        <v>772.5</v>
+        <v>1040.0</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>7150.0</v>
+        <v>9250.0</v>
       </c>
       <c r="D6" t="n">
-        <v>715.0</v>
+        <v>925.0</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>6650.0</v>
+        <v>8425.0</v>
       </c>
       <c r="D7" t="n">
-        <v>665.0</v>
+        <v>842.5</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>6575.0</v>
+        <v>7850.0</v>
       </c>
       <c r="D8" t="n">
-        <v>657.5</v>
+        <v>785.0</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C9" t="n">
-        <v>5850.0</v>
+        <v>7775.0</v>
       </c>
       <c r="D9" t="n">
-        <v>585.0</v>
+        <v>777.5</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>5100.0</v>
+        <v>7400.0</v>
       </c>
       <c r="D10" t="n">
-        <v>510.0</v>
+        <v>740.0</v>
       </c>
     </row>
     <row r="11">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>5100.0</v>
+        <v>6800.0</v>
       </c>
       <c r="D11" t="n">
-        <v>510.0</v>
+        <v>680.0</v>
       </c>
     </row>
     <row r="12">
@@ -787,10 +787,10 @@
         <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>4700.0</v>
+        <v>6650.0</v>
       </c>
       <c r="D12" t="n">
-        <v>470.0</v>
+        <v>665.0</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>4400.0</v>
+        <v>6500.0</v>
       </c>
       <c r="D13" t="n">
-        <v>440.0</v>
+        <v>650.0</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>3725.0</v>
+        <v>6400.0</v>
       </c>
       <c r="D14" t="n">
-        <v>372.5</v>
+        <v>640.0</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C15" t="n">
-        <v>3450.0</v>
+        <v>6225.0</v>
       </c>
       <c r="D15" t="n">
-        <v>345.0</v>
+        <v>622.5</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C16" t="n">
-        <v>3400.0</v>
+        <v>5500.0</v>
       </c>
       <c r="D16" t="n">
-        <v>340.0</v>
+        <v>550.0</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="n">
-        <v>3000.0</v>
+        <v>4850.0</v>
       </c>
       <c r="D17" t="n">
-        <v>300.0</v>
+        <v>485.0</v>
       </c>
     </row>
     <row r="18">
@@ -868,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C18" t="n">
-        <v>2850.0</v>
+        <v>4450.0</v>
       </c>
       <c r="D18" t="n">
-        <v>285.0</v>
+        <v>445.0</v>
       </c>
     </row>
     <row r="19">
@@ -882,13 +882,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>2800.0</v>
+        <v>4350.0</v>
       </c>
       <c r="D19" t="n">
-        <v>280.0</v>
+        <v>435.0</v>
       </c>
     </row>
   </sheetData>
